--- a/results.xlsx
+++ b/results.xlsx
@@ -414,7 +414,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{"code":0,"document_number":790,"long_id":"CGppjxt5MUqne3eAH1jQjkc2omZwjcyyErAkzQ23gFdH","message":"Successful operation","shift_document_number":87,"short_id":"CGppjxt5MUqn"}</t>
+          <t>{"code":0,"document_number":813,"long_id":"61eF9xjnvGYeGxnVMbvyV2xdx2aUSkmNmxukweEPcEoH","message":"Successful operation","shift_document_number":110,"short_id":"61eF9xjnvGYe"}</t>
         </is>
       </c>
     </row>
@@ -431,7 +431,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{"code":0,"document_number":791,"long_id":"8Y7wbNTVFDk8DbnxrvhNjWJ5B2iYieJd8Wt9yn5dMSmi","message":"Successful operation","shift_document_number":88,"short_id":"8Y7wbNTVFDk8"}</t>
+          <t>{"code":0,"document_number":814,"long_id":"GnfvWgwDP6iMraT58ugYr98Qdg7PYKX3EPgyF1m5VXvC","message":"Successful operation","shift_document_number":111,"short_id":"GnfvWgwDP6iM"}</t>
         </is>
       </c>
     </row>
@@ -448,7 +448,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{"code":0,"document_number":792,"long_id":"2CECYZkHiBaLqMvFpatSXCkvXmBVdqUmMdqTimbHCk7k","message":"Successful operation","shift_document_number":89,"short_id":"2CECYZkHiBaL"}</t>
+          <t>{"code":0,"document_number":815,"long_id":"HxyiJSH6z5PQad9vpzPJuRPUeC3uMen6CRvPKVAT9fbg","message":"Successful operation","shift_document_number":112,"short_id":"HxyiJSH6z5PQ"}</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{"code":0,"document_number":793,"long_id":"C52e9SCzKQYg2xrP5WhW8q9yfoGz9DCGdxCnNpRQpmHc","message":"Successful operation","shift_document_number":90,"short_id":"C52e9SCzKQYg"}</t>
+          <t>{"code":0,"document_number":816,"long_id":"73c7hAh7V5KkHEaSMcB7kxsHrpjhxzg9VKz1C7sznXat","message":"Successful operation","shift_document_number":113,"short_id":"73c7hAh7V5Kk"}</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{"code":0,"document_number":794,"long_id":"DivmUqP4oZHguzednAc1XFRV6hmXNbsQnJzCPtrqLtTb","message":"Successful operation","shift_document_number":91,"short_id":"DivmUqP4oZHg"}</t>
+          <t>{"code":0,"document_number":817,"long_id":"54uyXPiwK3nojCMzysN8mp7aSHmFztT7HtfS33RKWucS","message":"Successful operation","shift_document_number":114,"short_id":"54uyXPiwK3no"}</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{"code":0,"document_number":795,"long_id":"12UzDDjfm6Tff8a2Z856iSsqbTtAMF4U5MDUf7yMGFgC","message":"Successful operation","shift_document_number":92,"short_id":"12UzDDjfm6Tf"}</t>
+          <t>{"code":0,"document_number":818,"long_id":"9o8b73xvSEkifMBUZseX8bc7SVQtqGicc7k3cZFtNURB","message":"Successful operation","shift_document_number":115,"short_id":"9o8b73xvSEki"}</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{"code":0,"document_number":796,"long_id":"7EdL7h14CEmUAHUtu8CR6FkMdHC4m648wA2XtLh6H2e5","message":"Successful operation","shift_document_number":93,"short_id":"7EdL7h14CEmU"}</t>
+          <t>{"code":0,"document_number":819,"long_id":"6osghE4zkvn77kV2yG6kiq6A67nYFoFJZLX1RyYRYdfT","message":"Successful operation","shift_document_number":116,"short_id":"6osghE4zkvn7"}</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{"code":0,"document_number":797,"long_id":"H2ac61gmDJuVX9nNTkbvRTgt8urN4vjChh8fZ181eSZc","message":"Successful operation","shift_document_number":94,"short_id":"H2ac61gmDJuV"}</t>
+          <t>{"code":0,"document_number":820,"long_id":"GGtTcS37Tbz4wt17z6RwrWYtfLK71JvmHn1SWNjpQyUQ","message":"Successful operation","shift_document_number":117,"short_id":"GGtTcS37Tbz4"}</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{"code":0,"document_number":798,"long_id":"A7uLTTWpxubGTYh8x9NFx8cxMzguZgUWnSZEk4bDUF64","message":"Successful operation","shift_document_number":95,"short_id":"A7uLTTWpxubG"}</t>
+          <t>{"code":0,"document_number":821,"long_id":"2uRvXcjVdUezMcWzdRnwrZipL92bFFm3HcV4PLWLxyL8","message":"Successful operation","shift_document_number":118,"short_id":"2uRvXcjVdUez"}</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{"code":0,"document_number":799,"long_id":"FzXjgCcv6NkcX6s1rtrCZ48HudR5XwrRj89U1kC87U8X","message":"Successful operation","shift_document_number":96,"short_id":"FzXjgCcv6Nkc"}</t>
+          <t>{"code":0,"document_number":822,"long_id":"BrDeZgtR1rhktd16aBLydDfoggo1jHrQR8brHJd9XNdg","message":"Successful operation","shift_document_number":119,"short_id":"BrDeZgtR1rhk"}</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{"code":0,"document_number":800,"long_id":"2eog6jRJXDbNz8FA88TVVaBXoq6UGzYAuPMns43BfftJ","message":"Successful operation","shift_document_number":97,"short_id":"2eog6jRJXDbN"}</t>
+          <t>{"code":0,"document_number":823,"long_id":"AgF6txQNFhgCKtFZW8RQByTvpRESZNXcN78ThaaTy2sE","message":"Successful operation","shift_document_number":120,"short_id":"AgF6txQNFhgC"}</t>
         </is>
       </c>
     </row>
